--- a/backend/seedsDB/files/clubs.xlsx
+++ b/backend/seedsDB/files/clubs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="159">
   <si>
     <t xml:space="preserve">Tаблица 1</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t xml:space="preserve">ДЕТРОЙТ VR, WARFACE VR, SKYWALKER VR, МАФИЯ VR, ПОЛИГОН VR, КОД ДЕЛЬТА VR, ЛОВЦЫ ПРИВИДЕНИЙ VR, ФИКСИКИ VR, КОСМИЧЕСКАЯ ОБОРОНА VR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTC Vive, Valve Index, Windows Mixed Reality</t>
   </si>
   <si>
     <t xml:space="preserve">Engage VR Мозайка</t>
@@ -522,7 +525,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
@@ -563,11 +566,6 @@
       <name val="Helvetica Neue"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helvetica Neue"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -632,7 +630,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -669,14 +667,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -697,24 +687,25 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="15.9464285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.0803571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.9464285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.3705357142857"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="15.9464285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="37.5625"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="48.0758928571429"/>
-    <col collapsed="false" hidden="false" max="256" min="11" style="1" width="15.9464285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="15.9464285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="15.59375"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.6071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.59375"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.8973214285714"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="15.59375"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.8526785714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="47.0089285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="37.3258928571429"/>
+    <col collapsed="false" hidden="false" max="256" min="12" style="1" width="15.59375"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="15.59375"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -730,6 +721,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
@@ -866,7 +858,7 @@
         <v>38</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -874,25 +866,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>37</v>
@@ -909,25 +901,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>37</v>
@@ -944,31 +936,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>20</v>
@@ -979,29 +971,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>30</v>
@@ -1012,34 +1004,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="C10" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1047,31 +1039,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>20</v>
@@ -1082,34 +1074,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="9" t="s">
         <v>84</v>
       </c>
+      <c r="F12" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="G12" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="10" t="s">
         <v>89</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1117,34 +1109,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1152,34 +1144,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>99</v>
+        <v>84</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1187,34 +1179,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1222,31 +1214,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>20</v>
@@ -1257,31 +1249,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>20</v>
@@ -1292,31 +1284,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>20</v>
@@ -1327,34 +1319,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1362,31 +1354,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>20</v>
@@ -1397,31 +1389,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>20</v>
@@ -1432,31 +1424,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>20</v>
@@ -1467,31 +1459,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>20</v>

--- a/backend/seedsDB/files/clubs.xlsx
+++ b/backend/seedsDB/files/clubs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="199">
   <si>
     <t xml:space="preserve">Tаблица 1</t>
   </si>
@@ -92,7 +92,10 @@
     <t xml:space="preserve">HTC Vive</t>
   </si>
   <si>
-    <t xml:space="preserve">2,3,4,5</t>
+    <t xml:space="preserve">vrgo-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vrgo1.jpg,vrgo2.jpg,vrgo3.jpg,vrgo4.jpg,vrgo5.jpg,vrgo6.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">VR Port</t>
@@ -127,6 +130,12 @@
     <t xml:space="preserve">HTC Vive,Oculus Rift</t>
   </si>
   <si>
+    <t xml:space="preserve">vrport-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vrport1.jpeg,vrport2.jpeg,vrport3.jpeg,vrport4.jpeg,vrport5.jpeg,vrport6.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Engage VR Flacon</t>
   </si>
   <si>
@@ -156,6 +165,12 @@
     <t xml:space="preserve">HTC Vive, Valve Index, Windows Mixed Reality</t>
   </si>
   <si>
+    <t xml:space="preserve">engagevrflacon-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engagevrflacon1.jpg,engagevrflacon2.jpg,engagevrflacon3.jpg,engagevrflacon4.jpg,engagevrflacon5.jpg,engagevrflacon6.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Engage VR Мозайка</t>
   </si>
   <si>
@@ -174,6 +189,12 @@
     <t xml:space="preserve">8 499 490 45 68</t>
   </si>
   <si>
+    <t xml:space="preserve">engagevrmosaica-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engagevrmosaica1.jpeg,engagevrmosaica2.jpeg,engagevrmosaica3.jpeg,engagevrmosaica4.jpeg,engagevrmosaica5.jpeg,engagevrmosaica6.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Engage VR Авиапарк</t>
   </si>
   <si>
@@ -189,6 +210,12 @@
     <t xml:space="preserve">8 499 242 02 22</t>
   </si>
   <si>
+    <t xml:space="preserve">engagevraviapark-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engagevraviapark1.jpg,engagevraviapark2.jpg,engagevraviapark3.jpg,engagevraviapark4.jpg,engagevraviapark5.jpg,engagevraviapark6.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Z8 VR</t>
   </si>
   <si>
@@ -210,6 +237,12 @@
     <t xml:space="preserve">Space Troopers VR, The Way Of Dragon VR, HTC Vive Games</t>
   </si>
   <si>
+    <t xml:space="preserve">z8park-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z8park1.jpg,z8park2.jpg,z8park3.jpg,z8park4.jpg,z8park5.jpg,z8park6.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Platforma VR</t>
   </si>
   <si>
@@ -229,6 +262,12 @@
   </si>
   <si>
     <t xml:space="preserve">The Arrival, Match,The Poisoner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platformavr-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platformavr1.jpg,platformavr2.jpg,platformavr3.jpg,platformavr4.jpg,platformavr5.jpg,platformavr6.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Нереальное Место</t>
@@ -260,7 +299,7 @@
     <t xml:space="preserve">unreal-place-cover.png</t>
   </si>
   <si>
-    <t xml:space="preserve">unreal-place.png,unreal-place1.png,unreal-place2.png,unreal-place3.png,unreal-place4.png</t>
+    <t xml:space="preserve">unreal-place.png,unreal-place1.png,unreal-place2.png,unreal-place3.png,unreal-place4.png,unreal-place5.png</t>
   </si>
   <si>
     <t xml:space="preserve">Void VR</t>
@@ -286,6 +325,9 @@
   </si>
   <si>
     <t xml:space="preserve">Elven Assasin,Arizona Sunshine,Serious Sam,Raw Data,The blu,Fancy Skiing,Job Simulator,Bullet Sorrow,Pavlov VR,Audioshield,Apollo 11,Brookhaven Experiment,Waltz of the Wizard,BuzzBOT Attack,War of Castle VR,2017 vr,Tilt Brush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vrvoid1.jpg,vrvoid2.jpg,vrvoid3.jpg,vrvoid4.jpg,vrvoid5.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">ANVIO – Красная Роза</t>
@@ -320,6 +362,12 @@
     <t xml:space="preserve">PS VR,Oculus Rift,HTC Vive,Full Body VR</t>
   </si>
   <si>
+    <t xml:space="preserve">anvioredrose-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anviosucharevskaya1.jpg,viosucharevskaya2.jpg,viosucharevskaya3.jpg,viosucharevskaya4.jpg,viosucharevskaya5.jpg,viosucharevskaya6.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANVIO – Сухаревская Площадь</t>
   </si>
   <si>
@@ -338,6 +386,12 @@
     <t xml:space="preserve">8 901 906 01 56</t>
   </si>
   <si>
+    <t xml:space="preserve">anviosucharevskaya-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anviosucharevskaya1.jpg,anviosucharevskaya2.jpg,anviosucharevskaya3.jpg,anviosucharevskaya4.jpg,anviosucharevskaya5.jpg,anviosucharevskaya6.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANVIO – Трехгорная Мануфактура</t>
   </si>
   <si>
@@ -356,6 +410,15 @@
     <t xml:space="preserve">8 495 162 91 51</t>
   </si>
   <si>
+    <t xml:space="preserve">anvio1905-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anvio19051.jpg,anvio19052.jpg,anvio19053.jpg,anvio19054.jpg,anvio19055.jpg,anvio19056.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANVIO – Тульская</t>
+  </si>
+  <si>
     <t xml:space="preserve">Тульская,Серпуховская,Нагатинская</t>
   </si>
   <si>
@@ -363,6 +426,12 @@
   </si>
   <si>
     <t xml:space="preserve">8 499 795 95 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anviotulskaya-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anviotulskaya1.jpg,anviotulskaya2.jpg,anviotulskaya3.jpg,anviotulskaya4.jpg,anviotulskaya5.jpg,anviotulskaya6.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Another-World</t>
@@ -391,6 +460,12 @@
     <t xml:space="preserve">Colony: Code Red, Descent</t>
   </si>
   <si>
+    <t xml:space="preserve">anotherworld-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anotherworld1.jpg,anotherworld2.jpg,anotherworld3.jpg,anotherworld4.jpg,anotherworld5.jpg,anotherworld6.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">VR-GO</t>
   </si>
   <si>
@@ -433,6 +508,12 @@
   </si>
   <si>
     <t xml:space="preserve">ARIZONA SUNSHINE, Elven Assassin,Doom VFR, Fanct Skiing, The Elder Scrolls V: Skyrim, Raw Data,Killing Floor: Incursuin, Job Simulator, Tilt Brush, The Lab, Fruit Ninja, Eternity Warriors, Serios Sam 3 VR: BFE, Fallout 4, Space Pirate Trainer, SuperHot VR, Snow Fortress VR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gravity17-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gravity171.jpeg,gravity172.jpeg,gravity173.jpeg,gravity174.jpeg,gravity175.jpeg,gravity176.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Titan VR</t>
@@ -487,6 +568,12 @@
     <t xml:space="preserve">Assetto Corsa VR,Beat Saber,Bullet Sorrow VR,Dirt Rally,Fancy skiingBomb U!,FruitNinja,Kingspray,Minecraft,Moss,Project Cars,Raw Data,Richie's Plank Experience,RUSH,Russian VR Coaster,Serious Sam VR: The Last Hope,Snow Fortress,The Lab,Vanishing Realms</t>
   </si>
   <si>
+    <t xml:space="preserve">arenaspaceczdm-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arenaspaceczdm1.jpg,arenaspaceczdm2.jpg,arenaspaceczdm3.jpg,arenaspaceczdm4.jpg,arenaspaceczdm5.jpg,arenaspaceczdm6.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARena Space Калужский</t>
   </si>
   <si>
@@ -499,6 +586,12 @@
     <t xml:space="preserve">https://arenaspace.ru/nashi-parki/arena-space-kaluzhskij/</t>
   </si>
   <si>
+    <t xml:space="preserve">arenaspacekaluzhski-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arenaspacekaluzhski1.jpg,arenaspacekaluzhski2.jpg,arenaspacekaluzhski3.jpg,arenaspacekaluzhski4.jpg,arenaspacekaluzhski5.jpg,arenaspacekaluzhski6.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARena Space ВДНХ</t>
   </si>
   <si>
@@ -514,6 +607,12 @@
     <t xml:space="preserve">Пн-Вс: 11:00 - 20:00</t>
   </si>
   <si>
+    <t xml:space="preserve">arenaspacevdnh-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arenaspacevdnh1.jpg,arenaspacevdnh2.jpg,arenaspacevdnh3.jpg,arenaspacevdnh4.jpg,arenaspacevdnh5.jpg,arenaspacevdnh6.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARena Space Красный Кит</t>
   </si>
   <si>
@@ -530,6 +629,12 @@
   </si>
   <si>
     <t xml:space="preserve">8 499 288 01 89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arenaspacekrasnyijkit-cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arenaspacekrasnyijkit1.jpg,arenaspacekrasnyijkit2.jpg,arenaspacekrasnyijkit3.jpg,arenaspacekrasnyijkit4.jpg,arenaspacekrasnyijkit5.jpg,arenaspacekrasnyijkit6.jpg</t>
   </si>
 </sst>
 </file>
@@ -540,7 +645,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
@@ -588,6 +693,11 @@
       <name val="Helvetica Neue"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -659,7 +769,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -704,7 +814,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -788,27 +906,27 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="L10" activeCellId="0" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="14.6473214285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.6607142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.6473214285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.8348214285714"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="14.6473214285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.0803571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="44.8839285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="35.5535714285714"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="26.1026785714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="42.1696428571429"/>
-    <col collapsed="false" hidden="false" max="256" min="14" style="1" width="14.6473214285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="8.38839285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="14.1741071428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.1741071428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="54.2232142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="14.1741071428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.3705357142857"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="43.7053571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="34.7276785714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="25.3973214285714"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="41.1071428571429"/>
+    <col collapsed="false" hidden="false" max="256" min="14" style="1" width="14.1741071428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="8.15178571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -901,11 +1019,11 @@
       <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -913,260 +1031,284 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="J6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="9" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>77</v>
+        <v>89</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1174,34 +1316,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1209,34 +1357,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>90</v>
+        <v>103</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1244,34 +1398,40 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1279,34 +1439,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>105</v>
+      <c r="F14" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="H14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1314,34 +1480,40 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="K15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>95</v>
+      <c r="L15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1349,34 +1521,40 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1384,34 +1562,40 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1419,34 +1603,40 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1454,69 +1644,77 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1524,34 +1722,40 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1559,34 +1763,40 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1594,34 +1804,40 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/backend/seedsDB/files/clubs.xlsx
+++ b/backend/seedsDB/files/clubs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="220">
   <si>
     <t xml:space="preserve">Tаблица 1</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">screenShot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baloon</t>
   </si>
   <si>
     <t xml:space="preserve">VR Home</t>
@@ -96,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">vrgo1.jpg,vrgo2.jpg,vrgo3.jpg,vrgo4.jpg,vrgo5.jpg,vrgo6.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.697960,37.579124</t>
   </si>
   <si>
     <t xml:space="preserve">VR Port</t>
@@ -136,6 +142,9 @@
     <t xml:space="preserve">vrport1.jpeg,vrport2.jpeg,vrport3.jpeg,vrport4.jpeg,vrport5.jpeg,vrport6.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">55.747297,37.593731</t>
+  </si>
+  <si>
     <t xml:space="preserve">Engage VR Flacon</t>
   </si>
   <si>
@@ -171,6 +180,9 @@
     <t xml:space="preserve">engagevrflacon1.jpg,engagevrflacon2.jpg,engagevrflacon3.jpg,engagevrflacon4.jpg,engagevrflacon5.jpg,engagevrflacon6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">55.805093,37.585278</t>
+  </si>
+  <si>
     <t xml:space="preserve">Engage VR Мозайка</t>
   </si>
   <si>
@@ -195,6 +207,9 @@
     <t xml:space="preserve">engagevrmosaica1.jpeg,engagevrmosaica2.jpeg,engagevrmosaica3.jpeg,engagevrmosaica4.jpeg,engagevrmosaica5.jpeg,engagevrmosaica6.jpeg</t>
   </si>
   <si>
+    <t xml:space="preserve">55.710687,37.675100</t>
+  </si>
+  <si>
     <t xml:space="preserve">Engage VR Авиапарк</t>
   </si>
   <si>
@@ -216,6 +231,9 @@
     <t xml:space="preserve">engagevraviapark1.jpg,engagevraviapark2.jpg,engagevraviapark3.jpg,engagevraviapark4.jpg,engagevraviapark5.jpg,engagevraviapark6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">55.790458,37.531011</t>
+  </si>
+  <si>
     <t xml:space="preserve">Z8 VR</t>
   </si>
   <si>
@@ -243,6 +261,9 @@
     <t xml:space="preserve">z8park1.jpg,z8park2.jpg,z8park3.jpg,z8park4.jpg,z8park5.jpg,z8park6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">55.741353,37.526627</t>
+  </si>
+  <si>
     <t xml:space="preserve">Platforma VR</t>
   </si>
   <si>
@@ -268,6 +289,9 @@
   </si>
   <si>
     <t xml:space="preserve">platformavr1.jpg,platformavr2.jpg,platformavr3.jpg,platformavr4.jpg,platformavr5.jpg,platformavr6.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.755697,37.664518</t>
   </si>
   <si>
     <t xml:space="preserve">Нереальное Место</t>
@@ -302,6 +326,9 @@
     <t xml:space="preserve">unreal-place.png,unreal-place1.png,unreal-place2.png,unreal-place3.png,unreal-place4.png,unreal-place5.png</t>
   </si>
   <si>
+    <t xml:space="preserve">55.759613,37.664177</t>
+  </si>
+  <si>
     <t xml:space="preserve">Void VR</t>
   </si>
   <si>
@@ -368,6 +395,9 @@
     <t xml:space="preserve">anviosucharevskaya1.jpg,viosucharevskaya2.jpg,viosucharevskaya3.jpg,viosucharevskaya4.jpg,viosucharevskaya5.jpg,viosucharevskaya6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">55.745032,37.583832</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANVIO – Сухаревская Площадь</t>
   </si>
   <si>
@@ -392,6 +422,9 @@
     <t xml:space="preserve">anviosucharevskaya1.jpg,anviosucharevskaya2.jpg,anviosucharevskaya3.jpg,anviosucharevskaya4.jpg,anviosucharevskaya5.jpg,anviosucharevskaya6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">55.735013,37.585745</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANVIO – Трехгорная Мануфактура</t>
   </si>
   <si>
@@ -416,6 +449,9 @@
     <t xml:space="preserve">anvio19051.jpg,anvio19052.jpg,anvio19053.jpg,anvio19054.jpg,anvio19055.jpg,anvio19056.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">55.772436,37.638350</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANVIO – Тульская</t>
   </si>
   <si>
@@ -432,6 +468,9 @@
   </si>
   <si>
     <t xml:space="preserve">anviotulskaya1.jpg,anviotulskaya2.jpg,anviotulskaya3.jpg,anviotulskaya4.jpg,anviotulskaya5.jpg,anviotulskaya6.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.699467,37.625594</t>
   </si>
   <si>
     <t xml:space="preserve">Another-World</t>
@@ -466,6 +505,9 @@
     <t xml:space="preserve">anotherworld1.jpg,anotherworld2.jpg,anotherworld3.jpg,anotherworld4.jpg,anotherworld5.jpg,anotherworld6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">55.800448,37.594584</t>
+  </si>
+  <si>
     <t xml:space="preserve">VR-GO</t>
   </si>
   <si>
@@ -488,6 +530,9 @@
     <t xml:space="preserve">Aircar,Arizona Sunshine,ARK Park,Batman: Arkham VR,Beat Saber,Blue Effect,Call Of Duty: Jackal Assault VR,Dead and Buried,Dead Effect 2 VR,Don't Knock Twice,DOOM VFR,Dream Coaster VR,Dungeon Brewmaster,Eagle Flight,Echo Arena,Elven Assassin,Fancy Skiing,Farpoint,Floor Plan: Hands-On Edition,Fruit Ninja,Gorn,Guns'n'Stories: Bulletproof VR,Home - A VR Spacewalk,Hot Dogs, Horseshoes &amp; Hand Grenades,I Expect You To Die,INVASION!,Job Simulator,Killing Floor: Incursion,Kolb Antarctica Experience,Lethal VR,Lightblade VR,Loco Dojo,Lucky's Tale,Minecraft VR,MIYUBI,ONWARD,Pavlov VR,PAYDAY 2: VR,PlayStation VR Worlds,Radial-G: Racing Revolved,Raw Data,Rec Room,Resident Evil 7: Biohazard,Richie's Plank Experience,Rick and Morty: Virtual Rick-ality,Robo Recall,SACRALITH: The Archer's Tale,Senza Peso,Serious Sam VR: BFE,Serious Sam VR: The 2nd Encounter,Serious Sam VR: The First Encounter,Serious Sam VR: The Last Hope,Space Pirate Trainer,Spider-Man: Homecoming VR,STAND OUT : VR Battle Royale,Star Wars: Trials on Tatooine VR,StarBlood Arena™,Summer Funland,Super Hot,Surgeon Simulator,The Blu,The Climb,The Elder Scrolls V: Skyrim VR,The Lab,Tilt Brush,To The Top,Travel VR,Until Dawn: Rush of Blood,VRChat,Waltz of the Wizard</t>
   </si>
   <si>
+    <t xml:space="preserve">55.770482,37.585520</t>
+  </si>
+  <si>
     <t xml:space="preserve">Гравити 17</t>
   </si>
   <si>
@@ -514,6 +559,9 @@
   </si>
   <si>
     <t xml:space="preserve">gravity171.jpeg,gravity172.jpeg,gravity173.jpeg,gravity174.jpeg,gravity175.jpeg,gravity176.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.823687,37.500944</t>
   </si>
   <si>
     <t xml:space="preserve">Titan VR</t>
@@ -542,6 +590,9 @@
     <t xml:space="preserve">RICHIE'S PLANK EXPERIENCE,PROJECT CARS 2,PAVLOV VR,CREED: RISE TO GLORY,RUSH,GOOGLE TILT BRUSH,SPACE PIRATE TRAINER,RAW DATA,SERIOUS SAM VR: THE LAST HOPE,ARIZONA SUNSHINE</t>
   </si>
   <si>
+    <t xml:space="preserve">55.821032,37.386202</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARena Space ЦДМ</t>
   </si>
   <si>
@@ -574,6 +625,9 @@
     <t xml:space="preserve">arenaspaceczdm1.jpg,arenaspaceczdm2.jpg,arenaspaceczdm3.jpg,arenaspaceczdm4.jpg,arenaspaceczdm5.jpg,arenaspaceczdm6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">55.760038,37.625846</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARena Space Калужский</t>
   </si>
   <si>
@@ -592,6 +646,9 @@
     <t xml:space="preserve">arenaspacekaluzhski1.jpg,arenaspacekaluzhski2.jpg,arenaspacekaluzhski3.jpg,arenaspacekaluzhski4.jpg,arenaspacekaluzhski5.jpg,arenaspacekaluzhski6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">55.656047,37.541449</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARena Space ВДНХ</t>
   </si>
   <si>
@@ -613,6 +670,9 @@
     <t xml:space="preserve">arenaspacevdnh1.jpg,arenaspacevdnh2.jpg,arenaspacevdnh3.jpg,arenaspacevdnh4.jpg,arenaspacevdnh5.jpg,arenaspacevdnh6.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">55.828460,37.631424</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARena Space Красный Кит</t>
   </si>
   <si>
@@ -635,6 +695,9 @@
   </si>
   <si>
     <t xml:space="preserve">arenaspacekrasnyijkit1.jpg,arenaspacekrasnyijkit2.jpg,arenaspacekrasnyijkit3.jpg,arenaspacekrasnyijkit4.jpg,arenaspacekrasnyijkit5.jpg,arenaspacekrasnyijkit6.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.916678,37.759264</t>
   </si>
 </sst>
 </file>
@@ -668,6 +731,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Helvetica Neue"/>
       <family val="0"/>
@@ -693,11 +763,6 @@
       <name val="Helvetica Neue"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helvetica Neue"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -769,7 +834,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -782,7 +847,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -790,15 +859,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -806,11 +879,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -819,10 +892,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -903,73 +972,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M6" activeCellId="0" sqref="M6"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="14.1741071428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.1741071428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="54.2232142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="14.1741071428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.3705357142857"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="43.7053571428571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="34.7276785714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="25.3973214285714"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="41.1071428571429"/>
-    <col collapsed="false" hidden="false" max="256" min="14" style="1" width="14.1741071428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="8.15178571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="13.9375"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.8348214285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.9375"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="53.625"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="13.9375"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="33.9017857142857"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="43.2321428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="34.3705357142857"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="25.0401785714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="40.6339285714286"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="20.5446428571429"/>
+    <col collapsed="false" hidden="false" max="256" min="15" style="1" width="13.9375"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -978,866 +1047,929 @@
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="N2" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B14" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="B15" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="B16" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="B17" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="B18" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="B19" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="F19" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
+      <c r="N19" s="9" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>174</v>
+      <c r="B20" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="J23" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>198</v>
+        <v>217</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
